--- a/output/ejecucion_2/gridsearch_results/base_19_21/base_19_21_results_gs_rf_nrs.xlsx
+++ b/output/ejecucion_2/gridsearch_results/base_19_21/base_19_21_results_gs_rf_nrs.xlsx
@@ -561,16 +561,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4.249254846572876</v>
+        <v>6.604554224014282</v>
       </c>
       <c r="C2">
-        <v>1.155513019972107</v>
+        <v>2.10899426290795</v>
       </c>
       <c r="D2">
-        <v>2.32886004447937</v>
+        <v>2.756061983108521</v>
       </c>
       <c r="E2">
-        <v>0.3940503897917429</v>
+        <v>0.5886243519692015</v>
       </c>
       <c r="F2">
         <v>10</v>
@@ -614,16 +614,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.09345874786377</v>
+        <v>16.16262650489807</v>
       </c>
       <c r="C3">
-        <v>0.472307782137724</v>
+        <v>0.5122949615130402</v>
       </c>
       <c r="D3">
-        <v>2.695871543884278</v>
+        <v>2.970643663406372</v>
       </c>
       <c r="E3">
-        <v>0.8926566574002003</v>
+        <v>0.6267480318525118</v>
       </c>
       <c r="F3">
         <v>10</v>
@@ -667,16 +667,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.35740294456482</v>
+        <v>36.28737421035767</v>
       </c>
       <c r="C4">
-        <v>0.4118400613897438</v>
+        <v>0.9733845446644702</v>
       </c>
       <c r="D4">
-        <v>3.099009466171265</v>
+        <v>3.635593700408935</v>
       </c>
       <c r="E4">
-        <v>0.2162722381511471</v>
+        <v>0.5681666250917111</v>
       </c>
       <c r="F4">
         <v>10</v>
@@ -720,16 +720,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.979979133605957</v>
+        <v>15.09991703033447</v>
       </c>
       <c r="C5">
-        <v>1.477635162472899</v>
+        <v>2.59736668364744</v>
       </c>
       <c r="D5">
-        <v>2.979376411437988</v>
+        <v>3.401228046417236</v>
       </c>
       <c r="E5">
-        <v>0.9317119647536823</v>
+        <v>1.012721664744452</v>
       </c>
       <c r="F5">
         <v>10</v>
@@ -773,16 +773,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.03358716964722</v>
+        <v>24.72811770439148</v>
       </c>
       <c r="C6">
-        <v>0.4450827855378854</v>
+        <v>0.5692954536730003</v>
       </c>
       <c r="D6">
-        <v>3.280350112915039</v>
+        <v>3.4545241355896</v>
       </c>
       <c r="E6">
-        <v>0.2101062099245454</v>
+        <v>0.2597385357000739</v>
       </c>
       <c r="F6">
         <v>10</v>
@@ -826,16 +826,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>32.00616192817688</v>
+        <v>51.17711338996887</v>
       </c>
       <c r="C7">
-        <v>0.822192915015287</v>
+        <v>0.9011594561156573</v>
       </c>
       <c r="D7">
-        <v>3.492349672317505</v>
+        <v>4.917414617538452</v>
       </c>
       <c r="E7">
-        <v>0.2096741738748263</v>
+        <v>0.2409671429422083</v>
       </c>
       <c r="F7">
         <v>10</v>
@@ -879,16 +879,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.48028912544251</v>
+        <v>18.76088633537292</v>
       </c>
       <c r="C8">
-        <v>1.907608693696306</v>
+        <v>1.807750837471541</v>
       </c>
       <c r="D8">
-        <v>3.691072654724121</v>
+        <v>4.69812912940979</v>
       </c>
       <c r="E8">
-        <v>0.8895557155705202</v>
+        <v>0.520000898155745</v>
       </c>
       <c r="F8">
         <v>10</v>
@@ -932,16 +932,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.22534313201904</v>
+        <v>31.21945157051086</v>
       </c>
       <c r="C9">
-        <v>0.8437519093876964</v>
+        <v>1.030541308171231</v>
       </c>
       <c r="D9">
-        <v>4.069056940078736</v>
+        <v>4.732994556427002</v>
       </c>
       <c r="E9">
-        <v>0.5236039510108478</v>
+        <v>0.1939191511888302</v>
       </c>
       <c r="F9">
         <v>10</v>
@@ -985,16 +985,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>40.05369701385498</v>
+        <v>63.04997029304504</v>
       </c>
       <c r="C10">
-        <v>1.434776832388599</v>
+        <v>1.228756044247177</v>
       </c>
       <c r="D10">
-        <v>3.851756286621094</v>
+        <v>4.896128559112549</v>
       </c>
       <c r="E10">
-        <v>0.6020824482068691</v>
+        <v>1.094000356782564</v>
       </c>
       <c r="F10">
         <v>10</v>
@@ -1038,16 +1038,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12.11666522026062</v>
+        <v>18.30740485191345</v>
       </c>
       <c r="C11">
-        <v>1.839196300387782</v>
+        <v>1.129234777696128</v>
       </c>
       <c r="D11">
-        <v>3.94018816947937</v>
+        <v>4.719517183303833</v>
       </c>
       <c r="E11">
-        <v>1.095485253932144</v>
+        <v>0.8157999943394098</v>
       </c>
       <c r="F11">
         <v>20</v>
@@ -1091,16 +1091,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.61002488136291</v>
+        <v>26.17647705078125</v>
       </c>
       <c r="C12">
-        <v>0.4871977861231543</v>
+        <v>1.041878848944636</v>
       </c>
       <c r="D12">
-        <v>2.592874193191528</v>
+        <v>4.061032724380493</v>
       </c>
       <c r="E12">
-        <v>0.7818419456251897</v>
+        <v>0.4080185138538016</v>
       </c>
       <c r="F12">
         <v>20</v>
@@ -1144,16 +1144,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>33.82452597618103</v>
+        <v>54.03119897842407</v>
       </c>
       <c r="C13">
-        <v>1.323163599232187</v>
+        <v>0.6593127648871281</v>
       </c>
       <c r="D13">
-        <v>4.117937278747559</v>
+        <v>4.980927753448486</v>
       </c>
       <c r="E13">
-        <v>1.029613950109341</v>
+        <v>1.02874076800287</v>
       </c>
       <c r="F13">
         <v>20</v>
@@ -1197,16 +1197,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.78356199264526</v>
+        <v>22.27129917144775</v>
       </c>
       <c r="C14">
-        <v>1.238017329194975</v>
+        <v>2.236025872426742</v>
       </c>
       <c r="D14">
-        <v>3.006029272079468</v>
+        <v>3.96064453125</v>
       </c>
       <c r="E14">
-        <v>0.6522459043183683</v>
+        <v>1.093335828072984</v>
       </c>
       <c r="F14">
         <v>20</v>
@@ -1250,16 +1250,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.17624931335449</v>
+        <v>35.11706666946411</v>
       </c>
       <c r="C15">
-        <v>0.985074894230794</v>
+        <v>1.513741916906817</v>
       </c>
       <c r="D15">
-        <v>4.41896014213562</v>
+        <v>5.484337949752808</v>
       </c>
       <c r="E15">
-        <v>0.6572763897547541</v>
+        <v>0.3193842573534139</v>
       </c>
       <c r="F15">
         <v>20</v>
@@ -1303,16 +1303,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>47.91214785575867</v>
+        <v>75.92901425361633</v>
       </c>
       <c r="C16">
-        <v>0.9730421089400539</v>
+        <v>0.5912246985516156</v>
       </c>
       <c r="D16">
-        <v>3.864127206802368</v>
+        <v>5.048302984237671</v>
       </c>
       <c r="E16">
-        <v>0.7024745077922522</v>
+        <v>0.24005835589823</v>
       </c>
       <c r="F16">
         <v>20</v>
@@ -1356,16 +1356,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.07063026428223</v>
+        <v>26.90492143630981</v>
       </c>
       <c r="C17">
-        <v>3.049991358659449</v>
+        <v>3.258055899942937</v>
       </c>
       <c r="D17">
-        <v>3.873049163818359</v>
+        <v>5.093197965621949</v>
       </c>
       <c r="E17">
-        <v>0.964352005556958</v>
+        <v>0.9825735858623402</v>
       </c>
       <c r="F17">
         <v>20</v>
@@ -1409,16 +1409,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.42771573066711</v>
+        <v>45.85828804969788</v>
       </c>
       <c r="C18">
-        <v>0.6062666904652921</v>
+        <v>1.410118887654759</v>
       </c>
       <c r="D18">
-        <v>4.355233001708984</v>
+        <v>5.386447858810425</v>
       </c>
       <c r="E18">
-        <v>0.1388777903195458</v>
+        <v>1.197219264050307</v>
       </c>
       <c r="F18">
         <v>20</v>
@@ -1462,16 +1462,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>57.59596514701843</v>
+        <v>90.00160551071167</v>
       </c>
       <c r="C19">
-        <v>1.582156169004483</v>
+        <v>2.447301378573536</v>
       </c>
       <c r="D19">
-        <v>3.507212448120117</v>
+        <v>5.57769627571106</v>
       </c>
       <c r="E19">
-        <v>0.5419427496949735</v>
+        <v>0.5318707348655666</v>
       </c>
       <c r="F19">
         <v>20</v>
@@ -1515,16 +1515,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.61084051132202</v>
+        <v>20.85200996398926</v>
       </c>
       <c r="C20">
-        <v>1.168296997539226</v>
+        <v>0.5056138486704381</v>
       </c>
       <c r="D20">
-        <v>4.585154390335083</v>
+        <v>5.250234651565552</v>
       </c>
       <c r="E20">
-        <v>0.681352218149919</v>
+        <v>0.5767359867074207</v>
       </c>
       <c r="F20">
         <v>30</v>
@@ -1568,16 +1568,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.45497221946716</v>
+        <v>29.59115223884583</v>
       </c>
       <c r="C21">
-        <v>0.3124928865332159</v>
+        <v>1.19930886344727</v>
       </c>
       <c r="D21">
-        <v>3.060963439941406</v>
+        <v>3.736524152755737</v>
       </c>
       <c r="E21">
-        <v>1.674950217051544</v>
+        <v>1.033381072960315</v>
       </c>
       <c r="F21">
         <v>30</v>
@@ -1621,16 +1621,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>35.82860012054444</v>
+        <v>57.54023675918579</v>
       </c>
       <c r="C22">
-        <v>1.601628782676842</v>
+        <v>1.123703998289668</v>
       </c>
       <c r="D22">
-        <v>3.927280521392822</v>
+        <v>5.125348424911499</v>
       </c>
       <c r="E22">
-        <v>1.522894277044668</v>
+        <v>1.215591901568083</v>
       </c>
       <c r="F22">
         <v>30</v>
@@ -1674,16 +1674,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.25912346839905</v>
+        <v>23.07875304222107</v>
       </c>
       <c r="C23">
-        <v>0.8422229923178927</v>
+        <v>1.928475953262329</v>
       </c>
       <c r="D23">
-        <v>3.121140718460083</v>
+        <v>3.973188781738281</v>
       </c>
       <c r="E23">
-        <v>0.7381335444571682</v>
+        <v>1.122116506239798</v>
       </c>
       <c r="F23">
         <v>30</v>
@@ -1727,16 +1727,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.49664468765259</v>
+        <v>37.46525692939758</v>
       </c>
       <c r="C24">
-        <v>0.9563364586620096</v>
+        <v>1.647330613812193</v>
       </c>
       <c r="D24">
-        <v>4.658094072341919</v>
+        <v>5.994330024719238</v>
       </c>
       <c r="E24">
-        <v>0.3592036853395275</v>
+        <v>0.3603734597716877</v>
       </c>
       <c r="F24">
         <v>30</v>
@@ -1780,16 +1780,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>50.69631485939026</v>
+        <v>80.55284705162049</v>
       </c>
       <c r="C25">
-        <v>0.6217646590084207</v>
+        <v>1.194782180246848</v>
       </c>
       <c r="D25">
-        <v>3.996840190887451</v>
+        <v>5.50629711151123</v>
       </c>
       <c r="E25">
-        <v>0.9779516824825167</v>
+        <v>0.3335643549070756</v>
       </c>
       <c r="F25">
         <v>30</v>
@@ -1833,16 +1833,16 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>18.49596629142761</v>
+        <v>29.0403886795044</v>
       </c>
       <c r="C26">
-        <v>3.551252038801855</v>
+        <v>3.680550346648353</v>
       </c>
       <c r="D26">
-        <v>3.950110340118408</v>
+        <v>5.025520372390747</v>
       </c>
       <c r="E26">
-        <v>0.8625248804027077</v>
+        <v>0.823054490640727</v>
       </c>
       <c r="F26">
         <v>30</v>
@@ -1886,16 +1886,16 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>31.15186820030213</v>
+        <v>49.99210071563721</v>
       </c>
       <c r="C27">
-        <v>0.4160097915998951</v>
+        <v>1.588160484071473</v>
       </c>
       <c r="D27">
-        <v>4.081536817550659</v>
+        <v>5.063623189926147</v>
       </c>
       <c r="E27">
-        <v>0.3286426796884904</v>
+        <v>0.9602774176308893</v>
       </c>
       <c r="F27">
         <v>30</v>
@@ -1939,16 +1939,16 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>47.47923226356507</v>
+        <v>76.00289134979248</v>
       </c>
       <c r="C28">
-        <v>6.493103317982694</v>
+        <v>11.59963663917364</v>
       </c>
       <c r="D28">
-        <v>1.786706161499023</v>
+        <v>1.960800313949585</v>
       </c>
       <c r="E28">
-        <v>1.071846407451811</v>
+        <v>1.011924242569233</v>
       </c>
       <c r="F28">
         <v>30</v>
